--- a/user-interface/week3/HCI_Data_Exmple.xlsx
+++ b/user-interface/week3/HCI_Data_Exmple.xlsx
@@ -8,29 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gimjiseob/Desktop/homework/user-interface/week3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871724A8-6568-2743-B705-D4F5017766D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955445A2-E0E3-E744-96FE-F7D57B7443C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="-10300" windowWidth="25600" windowHeight="28300" xr2:uid="{CEEE82D5-C869-5042-9D35-F8C1E6C0E397}"/>
+    <workbookView xWindow="-41680" yWindow="-6300" windowWidth="28300" windowHeight="16740" xr2:uid="{CEEE82D5-C869-5042-9D35-F8C1E6C0E397}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$I$10:$I$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$I$10:$I$10</definedName>
     <definedName name="슬라이서_과제_제출여부">#N/A</definedName>
+    <definedName name="슬라이서_과제_제출여부1">#N/A</definedName>
     <definedName name="슬라이서_학년">#N/A</definedName>
+    <definedName name="슬라이서_학년1">#N/A</definedName>
     <definedName name="슬라이서_학점">#N/A</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId5"/>
+      </x14:slicerCaches>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId2"/>
-        <x14:slicerCache r:id="rId3"/>
-        <x14:slicerCache r:id="rId4"/>
+        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -50,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +73,9 @@
   </si>
   <si>
     <t>학년</t>
+  </si>
+  <si>
+    <t>학년</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -89,30 +104,44 @@
   </si>
   <si>
     <t>A+</t>
+  </si>
+  <si>
+    <t>A+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B+</t>
+  </si>
+  <si>
+    <t>B+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C+</t>
+  </si>
+  <si>
+    <t>C+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -197,6 +226,18 @@
   <si>
     <t>랜덤 이름 : https://maternalgrandfather.tistory.com/entry/랜덤-한글-이름-생성기-추천</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합계</t>
+  </si>
+  <si>
+    <t>개수 : 과제 제출여부</t>
+  </si>
+  <si>
+    <t>열 레이블</t>
+  </si>
+  <si>
+    <t>(모두)</t>
   </si>
 </sst>
 </file>
@@ -272,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,6 +343,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -343,17 +390,178 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>81587</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>143294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>499276</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141845</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="학년 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D5DC39B-A954-4247-8100-B764774F5C44}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="학년 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9689971" y="374203"/>
+              <a:ext cx="1828800" cy="3000369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                <a:t>이 도형은 슬라이서를 나타냅니다. 슬라이서는 Excel 2010 이상에서 지원됩니다.
+이 도형이 이전 버전의 Excel에서 수정되었거나 통합 문서가 Excel 2003 또는 이전 버전에서 저장된 경우 슬라이서를 사용할 수 없습니다.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179340</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>215387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>250666</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>213938</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="과제 제출여부 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D32E1E-B986-D742-B091-3A13857A1485}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="과제 제출여부 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8646007" y="677205"/>
+              <a:ext cx="1828800" cy="3000369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                <a:t>이 도형은 슬라이서를 나타냅니다. 슬라이서는 Excel 2010 이상에서 지원됩니다.
+이 도형이 이전 버전의 Excel에서 수정되었거나 통합 문서가 Excel 2003 또는 이전 버전에서 저장된 경우 슬라이서를 사용할 수 없습니다.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>388730</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>92583</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>121846</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>83380</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>82458</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>36443</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>74401</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -390,7 +598,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4143513" y="1077293"/>
+              <a:off x="8883005" y="838018"/>
               <a:ext cx="1828800" cy="3000369"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -423,16 +631,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>659664</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>59818</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33867</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>96630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>574261</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>50839</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>905565</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87651</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -468,7 +676,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3457345" y="1513876"/>
+              <a:off x="8795026" y="1541485"/>
               <a:ext cx="1828800" cy="3000369"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -501,16 +709,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>323205</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>220319</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>258784</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91481</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>237802</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>211340</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>173381</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82502</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -546,7 +754,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3120886" y="1904449"/>
+              <a:off x="9019943" y="616046"/>
               <a:ext cx="1828800" cy="3000369"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -580,7 +788,318 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="44464.961483564817" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="16" xr:uid="{EADA5124-ADCE-584D-A597-AA3269D2FDA1}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="표2"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="이름" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="학번" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="201610123" maxValue="201911345" count="16">
+        <n v="201710912"/>
+        <n v="201910923"/>
+        <n v="201810134"/>
+        <n v="201710932"/>
+        <n v="201910932"/>
+        <n v="201810923"/>
+        <n v="201610123"/>
+        <n v="201910321"/>
+        <n v="201710952"/>
+        <n v="201810992"/>
+        <n v="201710803"/>
+        <n v="201610645"/>
+        <n v="201810921"/>
+        <n v="201910153"/>
+        <n v="201823455"/>
+        <n v="201911345"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="학년" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="4" count="3">
+        <n v="3"/>
+        <n v="4"/>
+        <n v="2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="과제 제출여부" numFmtId="0">
+      <sharedItems count="2">
+        <s v="O"/>
+        <s v="X"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="학점" numFmtId="0">
+      <sharedItems count="6">
+        <s v="A+"/>
+        <s v="A"/>
+        <s v="B"/>
+        <s v="B+"/>
+        <s v="C+"/>
+        <s v="C"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="940749112"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="16">
+  <r>
+    <s v="김지섭"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="홍길동"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="배승남"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="김선옥"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="권영빈"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="하명훈"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="정우진"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="성승기"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="안효은"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="배현웅"/>
+    <x v="9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="남해일"/>
+    <x v="10"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="백경민"/>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="심영식"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="탁승민"/>
+    <x v="13"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="강현경"/>
+    <x v="14"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="추영하"/>
+    <x v="15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A37AA18C-089A-A746-8794-881CA2F9E27C}" name="피벗 테이블2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C3:J5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="17">
+        <item x="6"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="개수 : 과제 제출여부" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_학년1" xr10:uid="{B65F0BEE-57DB-194E-8FC3-933346DB1184}" sourceName="학년">
+  <pivotTables>
+    <pivotTable tabId="2" name="피벗 테이블2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="940749112">
+      <items count="3">
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_과제_제출여부1" xr10:uid="{9A6EF899-3981-1140-9CCA-A82FF1211E59}" sourceName="과제 제출여부">
+  <pivotTables>
+    <pivotTable tabId="2" name="피벗 테이블2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="940749112">
+      <items count="2">
+        <i x="0" s="1"/>
+        <i x="1" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_학년" xr10:uid="{B19B9249-4E76-0C49-8DEE-2CE2C0E3C77F}" sourceName="학년">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
@@ -590,7 +1109,7 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_과제_제출여부" xr10:uid="{361FFE38-3F85-EE43-A6CB-128094C41186}" sourceName="과제 제출여부">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
@@ -600,7 +1119,7 @@
 </slicerCacheDefinition>
 </file>
 
-<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_학점" xr10:uid="{0AEA7613-D7CE-624B-9284-8090A5C9061A}" sourceName="학점">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
@@ -612,22 +1131,22 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="학년" xr10:uid="{052ED3D7-0FEF-D144-9DE1-8840EBD266B4}" cache="슬라이서_학년" caption="학년" rowHeight="294216"/>
+  <slicer name="학년 1" xr10:uid="{5A4BDA77-77F5-294C-8F15-CEA36B03E043}" cache="슬라이서_학년1" caption="학년" rowHeight="294216"/>
+  <slicer name="과제 제출여부 1" xr10:uid="{522FE27A-384C-1A46-8EF0-433DFC57F567}" cache="슬라이서_과제_제출여부1" caption="과제 제출여부" rowHeight="294216"/>
+</slicers>
+</file>
+
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="학년" xr10:uid="{052ED3D7-0FEF-D144-9DE1-8840EBD266B4}" cache="슬라이서_학년" caption="학년" style="SlicerStyleLight2" rowHeight="294216"/>
   <slicer name="과제 제출여부" xr10:uid="{41885454-CE12-1E47-B6F8-EDD9E704D3FA}" cache="슬라이서_과제_제출여부" caption="과제 제출여부" rowHeight="294216"/>
-  <slicer name="학점" xr10:uid="{618A89CF-93D5-B34D-B13F-AB785A95AF1F}" cache="슬라이서_학점" caption="학점" rowHeight="294216"/>
+  <slicer name="학점" xr10:uid="{618A89CF-93D5-B34D-B13F-AB785A95AF1F}" cache="슬라이서_학점" caption="학점" style="SlicerStyleLight6" rowHeight="294216"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E2BCDA03-C6F7-CF4B-B552-47019E63F4E3}" name="표2" displayName="표2" ref="B3:F19" totalsRowShown="0">
-  <autoFilter ref="B3:F19" xr:uid="{E2BCDA03-C6F7-CF4B-B552-47019E63F4E3}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="A+"/>
-        <filter val="C+"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:F19" xr:uid="{E2BCDA03-C6F7-CF4B-B552-47019E63F4E3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{62608F31-8491-3744-94A9-14D0F2956ED8}" name="이름" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{6587A5CB-0C20-EF4A-BB1E-356659FDED6A}" name="학번"/>
@@ -935,11 +1454,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92CACE2-2921-6747-96D4-237E47A74074}">
+  <dimension ref="C1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10">
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10">
+      <c r="D3" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10">
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="10">
+        <v>3</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>3</v>
+      </c>
+      <c r="G5" s="10">
+        <v>4</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>2</v>
+      </c>
+      <c r="J5" s="10">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A7FA3E-85B1-A247-8314-F9685B5A9169}">
   <dimension ref="B1:AB24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -950,7 +1578,7 @@
   <sheetData>
     <row r="1" spans="2:28" ht="23">
       <c r="B1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -959,7 +1587,7 @@
     </row>
     <row r="2" spans="2:28">
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -974,18 +1602,18 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:28">
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>201710912</v>
@@ -994,15 +1622,15 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:28" hidden="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28">
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>201910923</v>
@@ -1011,15 +1639,15 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:28" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28">
       <c r="B6" s="6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>201810134</v>
@@ -1027,16 +1655,13 @@
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:28" ht="19" hidden="1" customHeight="1">
+    </row>
+    <row r="7" spans="2:28" ht="19" customHeight="1">
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>201710932</v>
@@ -1044,16 +1669,13 @@
       <c r="D7">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:28" hidden="1">
+    </row>
+    <row r="8" spans="2:28">
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>201910932</v>
@@ -1061,16 +1683,13 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:28">
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>201810923</v>
@@ -1079,15 +1698,15 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="19">
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>201610123</v>
@@ -1095,29 +1714,26 @@
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>15</v>
-      </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I10" s="4"/>
       <c r="Y10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="Z10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AA10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AB10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:28">
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>201910321</v>
@@ -1126,15 +1742,15 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:28" hidden="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28">
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>201710952</v>
@@ -1142,16 +1758,13 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
       <c r="F12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="2:28" hidden="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28">
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>201810992</v>
@@ -1160,15 +1773,15 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28">
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>201710803</v>
@@ -1177,15 +1790,15 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:28" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28">
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>201610645</v>
@@ -1193,16 +1806,13 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
       <c r="F15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:28" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28">
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16">
         <v>201810921</v>
@@ -1211,15 +1821,15 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>201910153</v>
@@ -1228,15 +1838,15 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>201823455</v>
@@ -1245,15 +1855,15 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>201911345</v>
@@ -1262,15 +1872,15 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -1279,7 +1889,7 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1297,7 +1907,7 @@
     </row>
     <row r="24" spans="2:8" ht="19">
       <c r="B24" s="9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
